--- a/data/blank.xlsx
+++ b/data/blank.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="P_list" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t xml:space="preserve">Label_en</t>
   </si>
@@ -223,8 +223,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="F1:G1 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -294,7 +294,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F1:G1 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -365,7 +365,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="F1:G1 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -512,8 +512,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -543,8 +543,12 @@
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -635,7 +639,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="F1:G1 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/blank.xlsx
+++ b/data/blank.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="P_list" sheetId="1" state="visible" r:id="rId2"/>
@@ -224,7 +224,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="F1:G1 A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -294,7 +294,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F1:G1 D1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -364,8 +364,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="F1:G1 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -512,8 +512,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -639,7 +639,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="F1:G1 A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
